--- a/data/trans_orig/P23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Edad-trans_orig.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DD3A35-A88E-4C96-89C0-D78802E9C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB4184E-C127-4EB0-B055-0415ADB90BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE734D9D-AB50-43EA-B69D-D660A3D2D018}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD29FE57-9EF7-428C-9138-5CD753A2B745}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
-  <si>
-    <t>Población que fuma diariamente en 2015 (Tasa respuesta: 99,89%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+  <si>
+    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,763 +72,775 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>67,86%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E808C8-9B88-4EDB-AD78-AAE91F7909F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B3567E-99B5-40B3-BF65-9314E36A48AC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1358,10 +1370,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>131861</v>
+        <v>206064</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1373,10 +1385,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="I4" s="7">
-        <v>93231</v>
+        <v>168886</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1388,10 +1400,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>218</v>
+        <v>384</v>
       </c>
       <c r="N4" s="7">
-        <v>225092</v>
+        <v>374950</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1409,10 +1421,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D5" s="7">
-        <v>287602</v>
+        <v>286958</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1424,10 +1436,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I5" s="7">
-        <v>302524</v>
+        <v>298603</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1439,10 +1451,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="N5" s="7">
-        <v>590126</v>
+        <v>585561</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1460,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="D6" s="7">
-        <v>419463</v>
+        <v>493022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1475,10 +1487,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>404</v>
+        <v>489</v>
       </c>
       <c r="I6" s="7">
-        <v>395755</v>
+        <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1490,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>797</v>
+        <v>987</v>
       </c>
       <c r="N6" s="7">
-        <v>815218</v>
+        <v>960511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>236650</v>
+        <v>398993</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1528,10 +1540,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="I7" s="7">
-        <v>188892</v>
+        <v>233910</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1543,10 +1555,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>418</v>
+        <v>611</v>
       </c>
       <c r="N7" s="7">
-        <v>425543</v>
+        <v>632902</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1564,10 +1576,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>353846</v>
+        <v>336496</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1579,10 +1591,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="I8" s="7">
-        <v>374652</v>
+        <v>391584</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1594,10 +1606,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>728</v>
+        <v>683</v>
       </c>
       <c r="N8" s="7">
-        <v>728497</v>
+        <v>728080</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1615,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>567</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>590496</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1630,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>563544</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1645,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>1154040</v>
+        <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>245683</v>
+        <v>340973</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1683,10 +1695,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="I10" s="7">
-        <v>209362</v>
+        <v>257461</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1698,10 +1710,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>447</v>
+        <v>574</v>
       </c>
       <c r="N10" s="7">
-        <v>455044</v>
+        <v>598434</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1719,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>403</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>422342</v>
+        <v>297695</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1734,10 +1746,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="I11" s="7">
-        <v>451096</v>
+        <v>432283</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1749,10 +1761,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>854</v>
+        <v>697</v>
       </c>
       <c r="N11" s="7">
-        <v>873439</v>
+        <v>729978</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1770,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>668025</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1785,10 +1797,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>660458</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1800,10 +1812,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1301</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>1328483</v>
+        <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1823,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>269089</v>
+        <v>234735</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1838,10 +1850,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="I13" s="7">
-        <v>216396</v>
+        <v>144966</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1853,10 +1865,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="N13" s="7">
-        <v>485485</v>
+        <v>379701</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1874,10 +1886,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>376959</v>
+        <v>284412</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1889,10 +1901,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="I14" s="7">
-        <v>430565</v>
+        <v>370676</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1904,10 +1916,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>744</v>
+        <v>628</v>
       </c>
       <c r="N14" s="7">
-        <v>807524</v>
+        <v>655088</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1925,10 +1937,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>646048</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1940,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>646961</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1955,10 +1967,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1182</v>
+        <v>986</v>
       </c>
       <c r="N15" s="7">
-        <v>1293009</v>
+        <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1990,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>137487</v>
+        <v>128691</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1993,10 +2005,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>107409</v>
+        <v>46888</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2008,10 +2020,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>244895</v>
+        <v>175578</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2029,10 +2041,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="D17" s="7">
-        <v>340431</v>
+        <v>258019</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2044,10 +2056,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I17" s="7">
-        <v>388331</v>
+        <v>357098</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2059,10 +2071,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="N17" s="7">
-        <v>728763</v>
+        <v>615118</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2080,10 +2092,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>477918</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2095,10 +2107,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>495740</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2110,10 +2122,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="N18" s="7">
-        <v>973658</v>
+        <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2133,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>69623</v>
+        <v>75826</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2148,10 +2160,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>32285</v>
+        <v>11220</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2163,10 +2175,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N19" s="7">
-        <v>101908</v>
+        <v>87046</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2184,10 +2196,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>555</v>
+        <v>443</v>
       </c>
       <c r="D20" s="7">
-        <v>520840</v>
+        <v>426640</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2199,10 +2211,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="I20" s="7">
-        <v>744361</v>
+        <v>665622</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2214,10 +2226,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1181</v>
+        <v>1093</v>
       </c>
       <c r="N20" s="7">
-        <v>1265201</v>
+        <v>1092262</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2235,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>590463</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2250,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>776646</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2277,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1280</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>1367109</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1013</v>
+        <v>1349</v>
       </c>
       <c r="D22" s="7">
-        <v>1090392</v>
+        <v>1385281</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -2300,37 +2312,37 @@
         <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="I22" s="7">
-        <v>847575</v>
+        <v>863330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1834</v>
+        <v>2194</v>
       </c>
       <c r="N22" s="7">
-        <v>1937967</v>
+        <v>2248612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2351,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2216</v>
+        <v>1864</v>
       </c>
       <c r="D23" s="7">
-        <v>2302022</v>
+        <v>1890220</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>2512</v>
+        <v>2452</v>
       </c>
       <c r="I23" s="7">
-        <v>2691529</v>
+        <v>2515868</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>4728</v>
+        <v>4316</v>
       </c>
       <c r="N23" s="7">
-        <v>4993550</v>
+        <v>4406087</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3229</v>
+        <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3392414</v>
+        <v>3275501</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2405,10 +2417,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3333</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>3539104</v>
+        <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2420,10 +2432,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6562</v>
+        <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6931517</v>
+        <v>6654699</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2437,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF333B0-D6BA-4358-947D-7C700C3B9FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C64B6A4-E110-433C-A911-0735ABCC22EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2577,49 +2589,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>67866</v>
+        <v>166085</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>60714</v>
+        <v>148172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="N4" s="7">
-        <v>128580</v>
+        <v>314258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,49 +2640,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="D5" s="7">
-        <v>309813</v>
+        <v>288061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>291446</v>
+        <v>281062</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>315</v>
+        <v>557</v>
       </c>
       <c r="N5" s="7">
-        <v>601258</v>
+        <v>569122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2694,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="I6" s="7">
-        <v>352160</v>
+        <v>429234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2709,10 +2721,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>378</v>
+        <v>866</v>
       </c>
       <c r="N6" s="7">
-        <v>729838</v>
+        <v>883380</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2732,49 +2744,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="D7" s="7">
-        <v>124675</v>
+        <v>349164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="I7" s="7">
-        <v>112753</v>
+        <v>248534</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
-        <v>192</v>
+        <v>571</v>
       </c>
       <c r="N7" s="7">
-        <v>237428</v>
+        <v>597697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,49 +2795,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>303721</v>
+        <v>337923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>385824</v>
+        <v>361721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>570</v>
+        <v>667</v>
       </c>
       <c r="N8" s="7">
-        <v>689545</v>
+        <v>699645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2849,10 +2861,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>460</v>
+        <v>571</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2864,10 +2876,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>762</v>
+        <v>1238</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>1297342</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2887,49 +2899,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="D10" s="7">
-        <v>145834</v>
+        <v>325330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>133933</v>
+        <v>248239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>544</v>
       </c>
       <c r="N10" s="7">
-        <v>279767</v>
+        <v>573569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2950,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="D11" s="7">
-        <v>411258</v>
+        <v>355503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>432</v>
       </c>
       <c r="I11" s="7">
-        <v>449543</v>
+        <v>461625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
-        <v>1071</v>
+        <v>772</v>
       </c>
       <c r="N11" s="7">
-        <v>860801</v>
+        <v>817128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>680833</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3004,10 +3016,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>846</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>709864</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3019,10 +3031,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1391</v>
+        <v>1316</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1390697</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3042,49 +3054,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>182441</v>
+        <v>279782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>240465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="N13" s="7">
-        <v>337280</v>
+        <v>520247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,46 +3105,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>489</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>540358</v>
+        <v>334835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
-        <v>897</v>
+        <v>332</v>
       </c>
       <c r="I14" s="7">
-        <v>590982</v>
+        <v>375734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
-        <v>1386</v>
+        <v>633</v>
       </c>
       <c r="N14" s="7">
-        <v>1131340</v>
+        <v>710569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>215</v>
@@ -3144,10 +3156,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>664</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>722799</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3159,10 +3171,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1139</v>
+        <v>539</v>
       </c>
       <c r="I15" s="7">
-        <v>745821</v>
+        <v>616199</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3174,10 +3186,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1803</v>
+        <v>1087</v>
       </c>
       <c r="N15" s="7">
-        <v>1468620</v>
+        <v>1230816</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3197,25 +3209,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7">
-        <v>176178</v>
+        <v>156369</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="H16" s="7">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>118357</v>
+        <v>67829</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>218</v>
@@ -3224,22 +3236,22 @@
         <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>294535</v>
+        <v>224198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3260,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>470</v>
+        <v>251</v>
       </c>
       <c r="D17" s="7">
-        <v>422902</v>
+        <v>273060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
-        <v>804</v>
+        <v>346</v>
       </c>
       <c r="I17" s="7">
-        <v>478706</v>
+        <v>379971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
-        <v>1274</v>
+        <v>597</v>
       </c>
       <c r="N17" s="7">
-        <v>901608</v>
+        <v>653031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>662</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3314,10 +3326,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3329,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1664</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>1196143</v>
+        <v>877229</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3352,49 +3364,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>91092</v>
+        <v>78306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>52185</v>
+        <v>23031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="N19" s="7">
-        <v>143277</v>
+        <v>101337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3415,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>898</v>
+        <v>436</v>
       </c>
       <c r="D20" s="7">
-        <v>606662</v>
+        <v>481331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
-        <v>1615</v>
+        <v>674</v>
       </c>
       <c r="I20" s="7">
-        <v>974452</v>
+        <v>719944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
-        <v>2513</v>
+        <v>1110</v>
       </c>
       <c r="N20" s="7">
-        <v>1581115</v>
+        <v>1201275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,10 +3466,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>504</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3469,10 +3481,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>694</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3484,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1198</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3507,49 +3519,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>756</v>
+        <v>1270</v>
       </c>
       <c r="D22" s="7">
-        <v>788087</v>
+        <v>1355036</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
-        <v>849</v>
+        <v>898</v>
       </c>
       <c r="I22" s="7">
-        <v>632780</v>
+        <v>976270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
-        <v>1605</v>
+        <v>2168</v>
       </c>
       <c r="N22" s="7">
-        <v>1420867</v>
+        <v>2331306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,49 +3570,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2617</v>
+        <v>1938</v>
       </c>
       <c r="D23" s="7">
-        <v>2594713</v>
+        <v>2070713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
-        <v>4512</v>
+        <v>2398</v>
       </c>
       <c r="I23" s="7">
-        <v>3170954</v>
+        <v>2580057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
-        <v>7129</v>
+        <v>4336</v>
       </c>
       <c r="N23" s="7">
-        <v>5765667</v>
+        <v>4650770</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,10 +3621,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3373</v>
+        <v>3208</v>
       </c>
       <c r="D24" s="7">
-        <v>3382800</v>
+        <v>3425749</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3624,10 +3636,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>5361</v>
+        <v>3296</v>
       </c>
       <c r="I24" s="7">
-        <v>3803734</v>
+        <v>3556327</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3639,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>8734</v>
+        <v>6504</v>
       </c>
       <c r="N24" s="7">
-        <v>7186534</v>
+        <v>6982076</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3656,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB4184E-C127-4EB0-B055-0415ADB90BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3608B1-D7BA-4EAE-A755-3DDADD5B6885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD29FE57-9EF7-428C-9138-5CD753A2B745}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFFFFE15-4F84-42BD-B4E0-E3944D6AE05F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,391 +75,391 @@
     <t>41,8%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>31,72%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>40,56%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>66,21%</t>
@@ -468,7 +468,7 @@
     <t>64,99%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -480,367 +480,367 @@
     <t>36,57%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>32,05%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>67,95%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B3567E-99B5-40B3-BF65-9314E36A48AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B12686-71B9-4C94-A435-F2CFFE236BA6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C64B6A4-E110-433C-A911-0735ABCC22EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B351F632-2187-4BFF-843A-99E38239407B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,7 +2601,7 @@
         <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -2610,13 +2610,13 @@
         <v>148172</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>309</v>
@@ -2625,13 +2625,13 @@
         <v>314258</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>288061</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -2661,13 +2661,13 @@
         <v>281062</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -2676,13 +2676,13 @@
         <v>569122</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>349164</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>234</v>
@@ -2765,13 +2765,13 @@
         <v>248534</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>571</v>
@@ -2780,13 +2780,13 @@
         <v>597697</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2801,13 @@
         <v>337923</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>337</v>
@@ -2816,13 +2816,13 @@
         <v>361721</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -2831,13 +2831,13 @@
         <v>699645</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2905,13 @@
         <v>325330</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -2920,13 +2920,13 @@
         <v>248239</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -2935,13 +2935,13 @@
         <v>573569</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2956,13 @@
         <v>355503</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>432</v>
@@ -2971,13 +2971,13 @@
         <v>461625</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2986,13 +2986,13 @@
         <v>817128</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>279782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3075,13 +3075,13 @@
         <v>240465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>454</v>
@@ -3090,13 +3090,13 @@
         <v>520247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>334835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -3126,13 +3126,13 @@
         <v>375734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -3141,13 +3141,13 @@
         <v>710569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3215,13 @@
         <v>156369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3230,13 +3230,13 @@
         <v>67829</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3245,13 +3245,13 @@
         <v>224198</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>273060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>224</v>

--- a/data/trans_orig/P23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3608B1-D7BA-4EAE-A755-3DDADD5B6885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5146FB1E-E60A-4356-B7F8-337BF1B372B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFFFFE15-4F84-42BD-B4E0-E3944D6AE05F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30B3F189-7DFD-4AEE-B6C1-46CA470EBF00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>41,8%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>58,2%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
   </si>
   <si>
     <t>60,96%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>54,25%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>37,4%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>46,5%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>62,6%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
   </si>
   <si>
     <t>53,5%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>53,39%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>45,05%</t>
   </si>
   <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>45,22%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>36,69%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>54,78%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>63,31%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>33,28%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,73 +366,73 @@
     <t>15,09%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>33,79%</t>
@@ -441,31 +441,31 @@
     <t>32,66%</t>
   </si>
   <si>
-    <t>35,01%</t>
+    <t>34,94%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>64,99%</t>
+    <t>65,06%</t>
   </si>
   <si>
     <t>67,34%</t>
@@ -480,313 +480,319 @@
     <t>36,57%</t>
   </si>
   <si>
-    <t>32,05%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>67,95%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>49,18%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>41,24%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>58,76%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>45,52%</t>
   </si>
   <si>
-    <t>40,88%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>54,48%</t>
   </si>
   <si>
-    <t>59,12%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>60,98%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>39,55%</t>
@@ -795,31 +801,31 @@
     <t>37,85%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>41,3%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>58,7%</t>
   </si>
   <si>
     <t>62,15%</t>
@@ -828,19 +834,19 @@
     <t>72,55%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B12686-71B9-4C94-A435-F2CFFE236BA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF73A-F650-4B84-B026-DDA6C89ABD64}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2333,7 +2339,7 @@
         <v>2194</v>
       </c>
       <c r="N22" s="7">
-        <v>2248612</v>
+        <v>2248611</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -2435,7 +2441,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B351F632-2187-4BFF-843A-99E38239407B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F85DA-D62E-4427-834D-3EA1B44A4A3B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,7 +2607,7 @@
         <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -2610,13 +2616,13 @@
         <v>148172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>309</v>
@@ -2625,13 +2631,13 @@
         <v>314258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2652,13 @@
         <v>288061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -2661,13 +2667,13 @@
         <v>281062</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -2676,13 +2682,13 @@
         <v>569122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2756,13 @@
         <v>349164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>234</v>
@@ -2765,13 +2771,13 @@
         <v>248534</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>571</v>
@@ -2780,13 +2786,13 @@
         <v>597697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2807,13 @@
         <v>337923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>337</v>
@@ -2816,13 +2822,13 @@
         <v>361721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -2831,13 +2837,13 @@
         <v>699645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2911,13 @@
         <v>325330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -2920,13 +2926,13 @@
         <v>248239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -2935,13 +2941,13 @@
         <v>573569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>355503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>432</v>
@@ -2971,13 +2977,13 @@
         <v>461625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2986,13 +2992,13 @@
         <v>817128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3066,13 @@
         <v>279782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3075,13 +3081,13 @@
         <v>240465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>454</v>
@@ -3090,13 +3096,13 @@
         <v>520247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>334835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -3126,13 +3132,13 @@
         <v>375734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -3141,13 +3147,13 @@
         <v>710569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3221,13 @@
         <v>156369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3230,13 +3236,13 @@
         <v>67829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3245,13 +3251,13 @@
         <v>224198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3272,13 @@
         <v>273060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -3281,13 +3287,13 @@
         <v>379971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -3296,13 +3302,13 @@
         <v>653031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3376,13 @@
         <v>78306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3385,13 +3391,13 @@
         <v>23031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -3400,13 +3406,13 @@
         <v>101337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3427,13 @@
         <v>481331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>674</v>
@@ -3436,13 +3442,13 @@
         <v>719944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>1110</v>
@@ -3451,13 +3457,13 @@
         <v>1201275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3531,13 @@
         <v>1355036</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>898</v>
@@ -3540,13 +3546,13 @@
         <v>976270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>2168</v>
@@ -3555,13 +3561,13 @@
         <v>2331306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3582,13 @@
         <v>2070713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2398</v>
@@ -3591,13 +3597,13 @@
         <v>2580057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>4336</v>
@@ -3606,13 +3612,13 @@
         <v>4650770</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Edad-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5146FB1E-E60A-4356-B7F8-337BF1B372B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2500DB9-386D-4D70-90F7-63073F8FC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30B3F189-7DFD-4AEE-B6C1-46CA470EBF00}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BACA747C-C716-42E1-9CE8-F2B555E988CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
-  <si>
-    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="448">
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>54,25%</t>
@@ -189,7 +190,7 @@
     <t>56,5%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>53,39%</t>
@@ -246,7 +247,7 @@
     <t>57,72%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>45,22%</t>
@@ -303,7 +304,7 @@
     <t>66,19%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>33,28%</t>
@@ -360,61 +361,118 @@
     <t>80,54%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>42,29%</t>
@@ -474,7 +532,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>36,57%</t>
@@ -741,58 +799,112 @@
     <t>77,58%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>39,55%</t>
@@ -847,6 +959,429 @@
   </si>
   <si>
     <t>67,73%</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61CF73A-F650-4B84-B026-DDA6C89ABD64}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA1BB7A-B20A-4BCD-A59E-38573D16B2F3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2151,10 +2686,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>75826</v>
+        <v>53173</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2166,10 +2701,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>11220</v>
+        <v>6585</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2181,10 +2716,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>87046</v>
+        <v>59758</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2202,10 +2737,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>443</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7">
-        <v>426640</v>
+        <v>239410</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2217,10 +2752,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>650</v>
+        <v>364</v>
       </c>
       <c r="I20" s="7">
-        <v>665622</v>
+        <v>336349</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2232,10 +2767,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1093</v>
+        <v>610</v>
       </c>
       <c r="N20" s="7">
-        <v>1092262</v>
+        <v>575759</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2253,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2268,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2283,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2300,55 +2835,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1349</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>1385281</v>
+        <v>22654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>845</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>863330</v>
+        <v>4635</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>2194</v>
+        <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>2248611</v>
+        <v>27288</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1864</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7">
-        <v>1890220</v>
+        <v>187229</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2452</v>
+        <v>286</v>
       </c>
       <c r="I23" s="7">
-        <v>2515868</v>
+        <v>329273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4316</v>
+        <v>483</v>
       </c>
       <c r="N23" s="7">
-        <v>4406087</v>
+        <v>516503</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,63 +2943,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1349</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1385281</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>845</v>
+      </c>
+      <c r="I25" s="7">
+        <v>863330</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2194</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2248611</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1864</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1890220</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2452</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2515867</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4316</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4406087</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275501</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654698</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2477,8 +3168,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F85DA-D62E-4427-834D-3EA1B44A4A3B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD8FD9E-21E5-4974-AEB3-F834E630210F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2494,7 +3185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2601,13 +3292,13 @@
         <v>166085</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>143</v>
@@ -2616,13 +3307,13 @@
         <v>148172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>309</v>
@@ -2631,13 +3322,13 @@
         <v>314258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +3343,13 @@
         <v>288061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>277</v>
@@ -2667,13 +3358,13 @@
         <v>281062</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>557</v>
@@ -2682,13 +3373,13 @@
         <v>569122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +3447,13 @@
         <v>349164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>234</v>
@@ -2771,13 +3462,13 @@
         <v>248534</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>571</v>
@@ -2786,13 +3477,13 @@
         <v>597697</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +3498,13 @@
         <v>337923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>337</v>
@@ -2822,13 +3513,13 @@
         <v>361721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>667</v>
@@ -2837,13 +3528,13 @@
         <v>699645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +3602,13 @@
         <v>325330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -2926,13 +3617,13 @@
         <v>248239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -2941,13 +3632,13 @@
         <v>573569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +3653,13 @@
         <v>355503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>432</v>
@@ -2977,13 +3668,13 @@
         <v>461625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>772</v>
@@ -2992,13 +3683,13 @@
         <v>817128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3757,13 @@
         <v>279782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3081,13 +3772,13 @@
         <v>240465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>454</v>
@@ -3099,10 +3790,10 @@
         <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3808,13 @@
         <v>334835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -3132,13 +3823,13 @@
         <v>375734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -3150,10 +3841,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3912,13 @@
         <v>156369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -3236,13 +3927,13 @@
         <v>67829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3251,13 +3942,13 @@
         <v>224198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3963,13 @@
         <v>273060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -3287,13 +3978,13 @@
         <v>379971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>597</v>
@@ -3302,13 +3993,13 @@
         <v>653031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,49 +4061,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>78306</v>
+        <v>51254</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>23031</v>
+        <v>19003</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>101337</v>
+        <v>70257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,49 +4112,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>436</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>481331</v>
+        <v>258532</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>719944</v>
+        <v>334993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>1110</v>
+        <v>565</v>
       </c>
       <c r="N20" s="7">
-        <v>1201275</v>
+        <v>593525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,10 +4163,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3487,10 +4178,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3502,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3519,55 +4210,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1270</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>1355036</v>
+        <v>27052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>898</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>976270</v>
+        <v>4029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>2168</v>
+        <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>2331306</v>
+        <v>31080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +4267,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1938</v>
+        <v>198</v>
       </c>
       <c r="D23" s="7">
-        <v>2070713</v>
+        <v>222799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>2398</v>
+        <v>347</v>
       </c>
       <c r="I23" s="7">
-        <v>2580057</v>
+        <v>384950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>4336</v>
+        <v>545</v>
       </c>
       <c r="N23" s="7">
-        <v>4650770</v>
+        <v>607750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,63 +4318,1594 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1270</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1355036</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>898</v>
+      </c>
+      <c r="I25" s="7">
+        <v>976270</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2168</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2331306</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1938</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2070713</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2398</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2580057</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4336</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4650770</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425749</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3556327</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982076</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD9FDA-9BC6-49D6-8315-EF9C2DDD96C1}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>136</v>
+      </c>
+      <c r="D4" s="7">
+        <v>145554</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="7">
+        <v>108</v>
+      </c>
+      <c r="I4" s="7">
+        <v>106400</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" s="7">
+        <v>244</v>
+      </c>
+      <c r="N4" s="7">
+        <v>251953</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>257</v>
+      </c>
+      <c r="D5" s="7">
+        <v>273909</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="7">
+        <v>296</v>
+      </c>
+      <c r="I5" s="7">
+        <v>289355</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="7">
+        <v>553</v>
+      </c>
+      <c r="N5" s="7">
+        <v>563265</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>393</v>
+      </c>
+      <c r="D6" s="7">
+        <v>419463</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>404</v>
+      </c>
+      <c r="I6" s="7">
+        <v>395755</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>797</v>
+      </c>
+      <c r="N6" s="7">
+        <v>815218</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>257</v>
+      </c>
+      <c r="D7" s="7">
+        <v>269701</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="7">
+        <v>220</v>
+      </c>
+      <c r="I7" s="7">
+        <v>214575</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M7" s="7">
+        <v>477</v>
+      </c>
+      <c r="N7" s="7">
+        <v>484276</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>310</v>
+      </c>
+      <c r="D8" s="7">
+        <v>320795</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="7">
+        <v>359</v>
+      </c>
+      <c r="I8" s="7">
+        <v>348969</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="7">
+        <v>669</v>
+      </c>
+      <c r="N8" s="7">
+        <v>669764</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>567</v>
+      </c>
+      <c r="D9" s="7">
+        <v>590496</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>579</v>
+      </c>
+      <c r="I9" s="7">
+        <v>563544</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1146</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1154040</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>253</v>
+      </c>
+      <c r="D10" s="7">
+        <v>266994</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10" s="7">
+        <v>225</v>
+      </c>
+      <c r="I10" s="7">
+        <v>220544</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M10" s="7">
+        <v>478</v>
+      </c>
+      <c r="N10" s="7">
+        <v>487538</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>384</v>
+      </c>
+      <c r="D11" s="7">
+        <v>401031</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="7">
+        <v>439</v>
+      </c>
+      <c r="I11" s="7">
+        <v>439915</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M11" s="7">
+        <v>823</v>
+      </c>
+      <c r="N11" s="7">
+        <v>840945</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>637</v>
+      </c>
+      <c r="D12" s="7">
+        <v>668025</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>664</v>
+      </c>
+      <c r="I12" s="7">
+        <v>660459</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1301</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1328483</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>246</v>
+      </c>
+      <c r="D13" s="7">
+        <v>277798</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="7">
+        <v>211</v>
+      </c>
+      <c r="I13" s="7">
+        <v>230829</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M13" s="7">
+        <v>457</v>
+      </c>
+      <c r="N13" s="7">
+        <v>508627</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>336</v>
+      </c>
+      <c r="D14" s="7">
+        <v>368250</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="7">
+        <v>389</v>
+      </c>
+      <c r="I14" s="7">
+        <v>416132</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M14" s="7">
+        <v>725</v>
+      </c>
+      <c r="N14" s="7">
+        <v>784382</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>582</v>
+      </c>
+      <c r="D15" s="7">
+        <v>646048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>600</v>
+      </c>
+      <c r="I15" s="7">
+        <v>646961</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1182</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1293009</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7">
+        <v>146836</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" s="7">
+        <v>98</v>
+      </c>
+      <c r="I16" s="7">
+        <v>114087</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M16" s="7">
+        <v>228</v>
+      </c>
+      <c r="N16" s="7">
+        <v>260924</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>294</v>
+      </c>
+      <c r="D17" s="7">
+        <v>331082</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H17" s="7">
+        <v>334</v>
+      </c>
+      <c r="I17" s="7">
+        <v>381653</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M17" s="7">
+        <v>628</v>
+      </c>
+      <c r="N17" s="7">
+        <v>712734</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>424</v>
+      </c>
+      <c r="D18" s="7">
+        <v>477918</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>432</v>
+      </c>
+      <c r="I18" s="7">
+        <v>495740</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>856</v>
+      </c>
+      <c r="N18" s="7">
+        <v>973658</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7">
+        <v>58232</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7">
+        <v>30027</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M19" s="7">
+        <v>82</v>
+      </c>
+      <c r="N19" s="7">
+        <v>88259</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>270</v>
+      </c>
+      <c r="D20" s="7">
+        <v>276098</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" s="7">
+        <v>327</v>
+      </c>
+      <c r="I20" s="7">
+        <v>347735</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="7">
+        <v>597</v>
+      </c>
+      <c r="N20" s="7">
+        <v>623833</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>325</v>
+      </c>
+      <c r="D21" s="7">
+        <v>334330</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>354</v>
+      </c>
+      <c r="I21" s="7">
+        <v>377762</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>679</v>
+      </c>
+      <c r="N21" s="7">
+        <v>712092</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24619</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>8014</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M22" s="7">
+        <v>36</v>
+      </c>
+      <c r="N22" s="7">
+        <v>32633</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>271</v>
+      </c>
+      <c r="D23" s="7">
+        <v>231514</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H23" s="7">
+        <v>294</v>
+      </c>
+      <c r="I23" s="7">
+        <v>390870</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M23" s="7">
+        <v>565</v>
+      </c>
+      <c r="N23" s="7">
+        <v>622384</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398884</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>601</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655017</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1107</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1189733</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
+        <v>895</v>
+      </c>
+      <c r="I25" s="7">
+        <v>924476</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2114209</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2122</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2202681</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2438</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2614627</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4560</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4817308</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6931517</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
